--- a/varios.xlsx
+++ b/varios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="192">
   <si>
     <t xml:space="preserve">tip0</t>
   </si>
@@ -403,7 +403,19 @@
     <t xml:space="preserve">sujeto 10</t>
   </si>
   <si>
+    <t xml:space="preserve">RELACION DE LAS VISTAS CON LOS TEMPLATES Y MODELOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFERENCIA ENTRE LISTVIEW Y DETAILVIEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template</t>
+  </si>
+  <si>
     <t xml:space="preserve">modelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se pasa el modelo "modelo A" a la vista:</t>
   </si>
   <si>
     <t xml:space="preserve">clasificacion</t>
@@ -415,6 +427,9 @@
     <t xml:space="preserve">La vista llama al siguiente template</t>
   </si>
   <si>
+    <t xml:space="preserve">template base</t>
+  </si>
+  <si>
     <t xml:space="preserve">le pasamos el modelo</t>
   </si>
   <si>
@@ -424,16 +439,16 @@
     <t xml:space="preserve">hereda de </t>
   </si>
   <si>
-    <t xml:space="preserve">ejemplo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lista (para ver cada uno de los items del modelo pasado)</t>
   </si>
   <si>
-    <t xml:space="preserve">PortafolioListView</t>
+    <t xml:space="preserve">ProyectoListView</t>
   </si>
   <si>
-    <t xml:space="preserve">portafolio.html</t>
+    <t xml:space="preserve">proyectoList.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.html</t>
   </si>
   <si>
     <t xml:space="preserve">Proyecto</t>
@@ -442,67 +457,132 @@
     <t xml:space="preserve">ListView</t>
   </si>
   <si>
+    <t xml:space="preserve">modelo ejemplo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DetailView</t>
+  </si>
+  <si>
     <t xml:space="preserve">InterfaceGeojsonListView</t>
   </si>
   <si>
-    <t xml:space="preserve">interfaceGeojson.html</t>
+    <t xml:space="preserve">interfaceGeojsonList.html</t>
   </si>
   <si>
     <t xml:space="preserve">Interface_geojson</t>
   </si>
   <si>
-    <t xml:space="preserve">se pasa el modelo "modelo A" a la vista:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Detalle (para ver todo el detalle del item particular parteneciente al modelo pasado)</t>
   </si>
   <si>
-    <t xml:space="preserve">ProyectoView</t>
+    <t xml:space="preserve">ProyectoDetailView</t>
   </si>
   <si>
-    <t xml:space="preserve">proyecto.html</t>
+    <t xml:space="preserve">proyectoDetail.html</t>
   </si>
   <si>
     <t xml:space="preserve">Sede</t>
   </si>
   <si>
-    <t xml:space="preserve">DetailView</t>
+    <t xml:space="preserve">modelo A</t>
   </si>
   <si>
-    <t xml:space="preserve">SedeView</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sede</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">View</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">sede.html</t>
+    <t xml:space="preserve">sedeDetail.html</t>
   </si>
   <si>
     <t xml:space="preserve">Trabajo</t>
   </si>
   <si>
-    <t xml:space="preserve">modelo ejemplo</t>
+    <t xml:space="preserve">item 1</t>
   </si>
   <si>
-    <t xml:space="preserve">TrabajoView</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trabajo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">View</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">trabajo.html</t>
+    <t xml:space="preserve">trabajoDetail.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item 2</t>
   </si>
   <si>
     <t xml:space="preserve">CRUD (Heredan de DetailView)</t>
   </si>
   <si>
-    <t xml:space="preserve">Interface_geojsonCreate</t>
+    <t xml:space="preserve">InterfaceGeojsonCreate</t>
   </si>
   <si>
     <t xml:space="preserve">interfaceGeojson_form.html</t>
   </si>
   <si>
+    <t xml:space="preserve">base_2.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">CreateView</t>
   </si>
   <si>
-    <t xml:space="preserve">modelo A</t>
+    <t xml:space="preserve">item 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Interface_geojsonUpdate</t>
+    <t xml:space="preserve">InterfaceGeojsonUpdate</t>
   </si>
   <si>
     <t xml:space="preserve">interfaceGeojson_update_form.html</t>
@@ -511,10 +591,10 @@
     <t xml:space="preserve">UpdateView</t>
   </si>
   <si>
-    <t xml:space="preserve">item 1</t>
+    <t xml:space="preserve">item 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Interface_geojsonDelete</t>
+    <t xml:space="preserve">InterfaceGeojsonDelete</t>
   </si>
   <si>
     <t xml:space="preserve">interfaceGeojson_confirm_delete.html</t>
@@ -523,7 +603,7 @@
     <t xml:space="preserve">DeleteView</t>
   </si>
   <si>
-    <t xml:space="preserve">item 2</t>
+    <t xml:space="preserve">item 5</t>
   </si>
   <si>
     <t xml:space="preserve">ProyectoCreate</t>
@@ -532,7 +612,7 @@
     <t xml:space="preserve">proyecto_form.html</t>
   </si>
   <si>
-    <t xml:space="preserve">item 3</t>
+    <t xml:space="preserve">item 6</t>
   </si>
   <si>
     <t xml:space="preserve">ProyectoUpdate</t>
@@ -541,25 +621,16 @@
     <t xml:space="preserve">proyecto_update_form.html</t>
   </si>
   <si>
-    <t xml:space="preserve">item 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">ProyectoDelete</t>
   </si>
   <si>
     <t xml:space="preserve">proyecto_confirm_delete.html</t>
   </si>
   <si>
-    <t xml:space="preserve">item 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">SedeCreate</t>
   </si>
   <si>
     <t xml:space="preserve">sede_form.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item 6</t>
   </si>
   <si>
     <t xml:space="preserve">SedeUpdate</t>
@@ -647,9 +718,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="AnjaliOldLipi"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1018,7 +1089,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1300,59 +1371,51 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1444,9 +1507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>683640</xdr:colOff>
+      <xdr:colOff>683280</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1455,8 +1518,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3939120" y="2359440"/>
-          <a:ext cx="821160" cy="492120"/>
+          <a:off x="3942720" y="2359440"/>
+          <a:ext cx="822240" cy="491760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1519,9 +1582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>784080</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>176400</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1530,8 +1593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4039920" y="3684600"/>
-          <a:ext cx="821160" cy="492120"/>
+          <a:off x="4043520" y="3684600"/>
+          <a:ext cx="822240" cy="491760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2392,14 +2455,14 @@
   </sheetPr>
   <dimension ref="B2:AS31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.87"/>
   </cols>
   <sheetData>
@@ -3982,11 +4045,11 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -4333,11 +4396,11 @@
   </sheetPr>
   <dimension ref="C9:H25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.06"/>
   </cols>
@@ -4481,11 +4544,11 @@
   </sheetPr>
   <dimension ref="C3:J29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="44" t="s">
@@ -4893,11 +4956,11 @@
   </sheetPr>
   <dimension ref="A1:AV993"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K3" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.42"/>
@@ -55443,10 +55506,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:O26"/>
+  <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -55455,455 +55518,505 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="70" width="30.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="70" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="70" width="36.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="70" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="70" width="19.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="70" width="18.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="70" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="70" width="27.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="70" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1024" style="71" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="70" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="70" width="19.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="70" width="18.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="9" style="70" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="1023" style="71" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="J2" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+    </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="72"/>
+      <c r="D4" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72" t="s">
+        <v>127</v>
+      </c>
       <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="J4" s="70" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="27.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="72" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E5" s="72" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G5" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="0"/>
-      <c r="K5" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
+        <v>134</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="74" t="s">
+      <c r="B6" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="0"/>
-      <c r="I6" s="75"/>
-    </row>
-    <row r="7" customFormat="false" ht="40.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="73"/>
-      <c r="C7" s="76" t="s">
+      <c r="C6" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D6" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E6" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="0"/>
-      <c r="I7" s="75"/>
-      <c r="K7" s="70" t="s">
+      <c r="F6" s="73" t="s">
         <v>140</v>
       </c>
+      <c r="G6" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" s="70" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="79" t="s">
+      <c r="B8" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="0"/>
-      <c r="I8" s="75"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="78"/>
-      <c r="C9" s="79" t="s">
+      <c r="J8" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" s="77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="N9" s="78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="N10" s="78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="0"/>
-      <c r="I9" s="75"/>
-      <c r="K9" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="M9" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="O9" s="70" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="78"/>
-      <c r="C10" s="79" t="s">
+      <c r="G11" s="80"/>
+      <c r="H11" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="L11" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="N11" s="79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="L12" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="N12" s="78" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="72"/>
+      <c r="C13" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="N13" s="78" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="72"/>
+      <c r="C14" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="N14" s="78" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="72"/>
+      <c r="C15" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="72"/>
+      <c r="C17" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="0"/>
-      <c r="I10" s="75"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="81" t="s">
+      <c r="G17" s="80"/>
+      <c r="H17" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="72"/>
+      <c r="C19" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="72"/>
+      <c r="C20" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="0"/>
-      <c r="I11" s="75"/>
-      <c r="K11" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="M11" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="O11" s="72" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="80"/>
-      <c r="C12" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" s="0"/>
-      <c r="I12" s="75"/>
-      <c r="K12" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="M12" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="O12" s="82" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="80"/>
-      <c r="C13" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="81" t="s">
+      <c r="G20" s="80"/>
+      <c r="H20" s="80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="72"/>
+      <c r="C21" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="H13" s="0"/>
-      <c r="I13" s="75"/>
-      <c r="K13" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="M13" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="O13" s="82" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="80"/>
-      <c r="C14" s="80" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="H14" s="0"/>
-      <c r="I14" s="75"/>
-      <c r="K14" s="82" t="s">
+      <c r="F21" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="M14" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="O14" s="83" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="80"/>
-      <c r="C15" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="0"/>
-      <c r="I15" s="75"/>
-      <c r="K15" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="M15" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="O15" s="82" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="80"/>
-      <c r="C16" s="80" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" s="0"/>
-      <c r="I16" s="75"/>
-      <c r="K16" s="82" t="s">
-        <v>173</v>
-      </c>
-      <c r="M16" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="O16" s="82" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="80"/>
-      <c r="C17" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="0"/>
-      <c r="I17" s="75"/>
-      <c r="K17" s="82" t="s">
-        <v>176</v>
-      </c>
-      <c r="M17" s="83" t="s">
-        <v>176</v>
-      </c>
-      <c r="O17" s="82" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="80"/>
-      <c r="C18" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" s="0"/>
-      <c r="I18" s="75"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="80"/>
-      <c r="C19" s="80" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" s="0"/>
-      <c r="I19" s="75"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="80"/>
-      <c r="C20" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="0"/>
-      <c r="I20" s="75"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="80"/>
-      <c r="C21" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="E21" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="0"/>
-      <c r="I21" s="75"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="80"/>
-      <c r="C22" s="80" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="0"/>
-      <c r="I22" s="75"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="K5:O5"/>
+  <mergeCells count="7">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B22"/>
